--- a/二次开发笔记SS.xlsx
+++ b/二次开发笔记SS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10500" tabRatio="737"/>
+    <workbookView windowWidth="21495" windowHeight="10500" tabRatio="843"/>
   </bookViews>
   <sheets>
     <sheet name="js代码封装" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="html笔记" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">js代码封装!$A$1:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">js代码封装!$A$1:$F$11</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
   <si>
     <t>功能描述</t>
   </si>
@@ -171,36 +171,7 @@
     <t>***</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="方正仿宋简体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>具体的查看</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="方正仿宋简体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图层说明</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="方正仿宋简体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选项</t>
-    </r>
+    <t>具体的查看图层说明选项</t>
   </si>
   <si>
     <t>定位到选定的图层</t>
@@ -218,7 +189,10 @@
     <t>初始化zTree树，基本图层树、管线图层树。包括单机事件、双击事件、选中事件</t>
   </si>
   <si>
-    <t>管线:layerManagement.js规划:layerTree</t>
+    <t>管线:layerManagement.js</t>
+  </si>
+  <si>
+    <t>规划:layerTree</t>
   </si>
   <si>
     <t>管线图层中将英文名换成中文名</t>
@@ -242,9 +216,27 @@
     <t>url, params, width, height</t>
   </si>
   <si>
+    <t>实现上做了浏览器兼容性处理，并传递了一些窗口的默认参数</t>
+  </si>
+  <si>
     <t>common.js</t>
   </si>
   <si>
+    <t>代码实现：function openDialog(url, params, width, height) {
+    var is_opera = /opera/i.test(navigator.userAgent);
+    var is_ie = (/msie/i.test(navigator.userAgent) &amp;&amp; !is_opera);
+    var is_ie_6 = (is_ie &amp;&amp; /msie 6\.0/i.test(navigator.userAgent));
+    var value = "";
+    if (is_ie_6) {
+        height = height + 50;
+        value = window.showModalDialog(url, params, "menubar:no;dialogWidth:" + width + "px;status:no;title:no;help:no;resizable:no;scroll:yes;location:no;toolbar:no;dialogHeight:" + height + "px");
+    } else {
+        value = window.showModalDialog(url, params, "menubar:no;dialogWidth:" + width + "px;status:no;title:no;help:no;resizable:no;scroll:yes;location:no;toolbar:no;dialogHeight:" + height + "px");
+    }
+    return value;
+}</t>
+  </si>
+  <si>
     <t>当前工程guid</t>
   </si>
   <si>
@@ -257,6 +249,77 @@
     <t>SYSTEMPARAMS.geology</t>
   </si>
   <si>
+    <t>字段映射(用户字段与标准字段、显示字段相互转换)</t>
+  </si>
+  <si>
+    <t>DataConfig.getName()</t>
+  </si>
+  <si>
+    <t>importName(待转换的名称),nodeName（映射文件中目标节点名称）,importIndex（对照索引）,exportIndex（对照索引）</t>
+  </si>
+  <si>
+    <t>转换后的名称</t>
+  </si>
+  <si>
+    <t>标准字段0：StandardName 
+显示字段1：CaptionName 用户字段2：FieldName</t>
+  </si>
+  <si>
+    <t>地质体：StampDataConfig.js</t>
+  </si>
+  <si>
+    <t>画圆、画多边形</t>
+  </si>
+  <si>
+    <t>ShapeCreator.createCircle(*)
+ShapeCreator.createPolygon(*)</t>
+  </si>
+  <si>
+    <t>callback函数(v3s,type)</t>
+  </si>
+  <si>
+    <t>通过回调执行查询等操作</t>
+  </si>
+  <si>
+    <t>地质体:StampShapeCreator.js</t>
+  </si>
+  <si>
+    <t>/*
+ * 绘制圆
+ */
+var drawCircle = function(layerId) {
+    drawV3s = null;
+    earth.ShapeCreator.Clear();
+    earth.Event.OnCreateGeometry = function(pval, type) {
+        drawV3s = pval;
+        circleSearch(layerId);
+        earth.Event.OnCreateGeometry = function() {};
+    }
+    earth.ShapeCreator.CreateCircle();
+}
+/**
+ * 圆搜索
+ */
+var circleSearch = function(id) {
+    if (drawV3s == null) {
+        alert("请先绘制圆");
+        return;
+    }
+    selectLayer = id;
+    var pval = drawV3s;
+    var layer = earth.LayerManager.GetLayerByGUID(selectLayer);
+    if (layer &amp;&amp; (layer.layerType != "GISVector" &amp;&amp; layer.layerType != "GISPOI")) {
+        onSearchCallback("", pval, "", id);
+    } else {
+        var sc = "(3,0,";
+        sc += pval.Radius + ",";
+        sc += pval.Longitude + "," + pval.Latitude;
+        sc += ")";
+        onGeoSearchCallback("", sc, id);
+    }
+}</t>
+  </si>
+  <si>
     <t>接口调用</t>
   </si>
   <si>
@@ -306,6 +369,241 @@
   </si>
   <si>
     <t>value表示不透明度百分比</t>
+  </si>
+  <si>
+    <t>earth.Event.OnCreateGeometry = callback;
+earth.ShapeCreator.Clear();
+1.earth.ShapeCreator.CreateCircle();//画圆
+2.earth.ShapeCreator.CreatePolygon();//画多边形</t>
+  </si>
+  <si>
+    <t>地质体</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取工程所有字段列表的服务（获取元数据）</t>
+    </r>
+  </si>
+  <si>
+    <t>http://192.168.100.153/geologic?service=9f1fb870-1ff9-41c0-8109-000000000002&amp;qt=0&amp;dt=GeologyHole</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>service:图层的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ID dt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询的对象，分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GeologyHole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（钻孔数据表）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GeologyHoleSoil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（土层数据表）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GeologySoil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（地层数据表）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GeologyProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（工程数据表）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GeologyWaterLevel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（地质水位表）。qt:查询类型 =16属性查询 =0元数据查询</t>
+    </r>
+  </si>
+  <si>
+    <t>（2）根据工程属性进行查询</t>
+  </si>
+  <si>
+    <t>http://192.168.100.153/geologic?service=9f1fb870-1ff9-41c0-8109-000000000002&amp;qt=16&amp;dt=GeologyHole&amp;pg=0,10</t>
+  </si>
+  <si>
+    <t>service:图层的ID
+pg:分页的参数，会返回查询的总记录数，并且按每10条分一页，返回第0+1页的记录。 
+dt:查询的对象，分GeologyHole（钻孔数据表）、GeologyHoleSoil（土层数据表）、GeologySoil（地层数据表）、GeologyProject（工程数据表）、GeologyWaterLevel（地质水位表）。
+qt:查询类型 =16属性查询</t>
+  </si>
+  <si>
+    <t>（3）时间日期的查询方式</t>
+  </si>
+  <si>
+    <t>http://192.168.100.153/geologic?service=9f1fb870-1ff9-41c0-8109-000000000002&amp;qt=16&amp;dt=GeologyHole&amp;pc=(and,greaterequal,MDATE,2017-11-14)(and,lessequal,MDATE,2017-11-15)</t>
+  </si>
+  <si>
+    <t>service:图层的ID
+pc:属性查询的参数
+括号内的参数顺序依次为（[逻辑关系与、或、非]，[相等、大于、小于]，[字段]，[字段值]）
+pg:分页的参数，会返回查询的总记录数，并且按每10条分一页，返回第0+1页的记录。 
+dt:查询的对象，分GeologyHole（钻孔数据表）、GeologyHoleSoil（土层数据表）、GeologySoil（地层数据表）、GeologyProject（工程数据表）、GeologyWaterLevel（地质水位表）。
+qt:查询类型 =16属性查询</t>
+  </si>
+  <si>
+    <t>（4）钻孔属性信息查询的服务</t>
+  </si>
+  <si>
+    <t>http://192.168.100.153/geologic?service=9f1fb870-1ff9-41c0-8109-000000000002&amp;qt=16&amp;dt=GeologyHole&amp;pc=(and,equal,HOLE_NO,123)&amp;pg=0,10</t>
+  </si>
+  <si>
+    <t>（5）获取标准地层列表的接口</t>
+  </si>
+  <si>
+    <t>http://192.168.100.153/geologic?service=9f1fb870-1ff9-41c0-8109-000000000002&amp;qt=16&amp;dt=GeologySoil</t>
+  </si>
+  <si>
+    <t>service:图层的ID
+qt:查询类型 =16属性查询
+dt:查询的对象，分GeologyHole（钻孔数据表）、GeologyHoleSoil（土层数据表）、GeologySoil（地层数据表）、GeologyProject（工程数据表）、GeologyWaterLevel（地质水位表）。</t>
+  </si>
+  <si>
+    <t>（6）地层详细信息查询的接口</t>
+  </si>
+  <si>
+    <t>http://192.168.100.153/geologic?service=9f1fb870-1ff9-41c0-8109-000000000002&amp;qt=16&amp;dt=GeologySoil&amp;pc=(and,equal,LAYER_NO,a12f)&amp;pg=0,10</t>
+  </si>
+  <si>
+    <t>service:图层的ID
+qt:查询类型 =16属性查询
+pc:属性查询的参数
+括号内的参数顺序依次为（[逻辑关系与、或、非]，[相等、大于、小于]，[字段]，[字段值]）
+pg:分页的参数，会返回查询的总记录数，并且按每10条分一页，返回第0+1页的记录。 
+dt:查询的对象，分GeologyHole（钻孔数据表）、GeologyHoleSoil（土层数据表）、GeologySoil（地层数据表）、GeologyProject（工程数据表）、GeologyWaterLevel（地质水位表）。</t>
   </si>
   <si>
     <t>重点管线</t>
@@ -608,10 +906,16 @@
 /*user-select:none;*/</t>
   </si>
   <si>
-    <t>去除IE下input后的删除X</t>
+    <t>去除IE下input后的清除 X</t>
   </si>
   <si>
     <t>input::-ms-clear {display: none;}</t>
+  </si>
+  <si>
+    <t>滚动条</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/11lang/p/6818037.html</t>
   </si>
   <si>
     <t>表格标题</t>
@@ -625,12 +929,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,6 +995,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -699,6 +1022,14 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="方正仿宋简体"/>
@@ -712,8 +1043,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="方正仿宋简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,6 +1073,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -735,6 +1109,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -743,16 +1162,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,29 +1178,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,66 +1194,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -886,31 +1228,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,7 +1252,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,61 +1324,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,18 +1366,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1036,13 +1378,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,13 +1402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,15 +1431,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1116,8 +1449,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,15 +1495,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1156,21 +1513,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1179,10 +1521,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1191,137 +1533,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1337,15 +1679,15 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1358,38 +1700,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1450,6 +1852,305 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>804545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\Administrator\AppData\Roaming\feiq\RichOle\1352904553.bmp"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="9525"/>
+          <a:ext cx="1276350" cy="795020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>868045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 6" descr="C:\Users\Administrator\AppData\Roaming\feiq\RichOle\3955080560.bmp"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="825500"/>
+          <a:ext cx="1247775" cy="868045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1350010</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1252855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="C:\Users\Administrator\AppData\Roaming\feiq\RichOle\219178186.bmp"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6581775" y="1786890"/>
+          <a:ext cx="1330960" cy="1224915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1995170</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1199515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 2" descr="C:\Users\Administrator\AppData\Roaming\feiq\RichOle\2194562833.bmp"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="3092450"/>
+          <a:ext cx="1995170" cy="1199515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1038860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 4" descr="C:\Users\Administrator\AppData\Roaming\feiq\RichOle\3394764699.bmp"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="4425950"/>
+          <a:ext cx="1038860" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 5" descr="C:\Users\Administrator\AppData\Roaming\feiq\RichOle\3705953315.bmp"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="5092700"/>
+          <a:ext cx="2977515" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1739,47 +2440,50 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="22" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="23" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="38.75" style="18" customWidth="1"/>
-    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.75" style="24" customWidth="1"/>
+    <col min="6" max="6" width="26" style="25" customWidth="1"/>
+    <col min="7" max="7" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="27" customHeight="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="20" customFormat="1" ht="27" customHeight="1" spans="1:6">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
@@ -1788,18 +2492,18 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
@@ -1808,18 +2512,18 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
@@ -1828,18 +2532,18 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" ht="51" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
@@ -1848,18 +2552,18 @@
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
@@ -1868,15 +2572,15 @@
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="24" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1888,18 +2592,18 @@
       <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="25" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="56.25" spans="1:6">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
@@ -1908,87 +2612,150 @@
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="45" spans="1:6">
+    <row r="9" ht="28" customHeight="1" spans="1:6">
       <c r="A9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" ht="24" spans="1:6">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="21" customHeight="1" spans="1:6">
+      <c r="A10" s="12"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="17" t="s">
+    </row>
+    <row r="11" ht="24" spans="1:6">
+      <c r="A11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="D11" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F11" s="35" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="28" customHeight="1" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="17" t="s">
+    <row r="13" ht="28" customHeight="1" spans="1:7">
+      <c r="A13" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F12" t="s">
+      <c r="C13" s="23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="E13" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="F13" s="25" t="s">
         <v>44</v>
       </c>
+      <c r="G13" s="36" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="22" t="s">
         <v>46</v>
       </c>
+      <c r="B15" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" ht="52.5" spans="1:6">
+      <c r="A18" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" ht="22.5" spans="1:7">
+      <c r="A20" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F10">
+  <autoFilter ref="A1:F11">
     <extLst/>
   </autoFilter>
+  <mergeCells count="5">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2001,7 +2768,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2012,10 +2779,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2027,13 +2794,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="61.25" customWidth="1"/>
@@ -2042,69 +2809,77 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>48</v>
+      <c r="B1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>55</v>
+        <v>69</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:2">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2117,17 +2892,95 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="2" width="9" style="15"/>
+    <col min="3" max="3" width="24.75" style="15" customWidth="1"/>
+    <col min="4" max="4" width="43.375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="65" customHeight="1" spans="1:4">
+      <c r="A1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" ht="73.5" spans="2:4">
+      <c r="B2" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" ht="105" spans="2:4">
+      <c r="B3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" ht="105" spans="2:4">
+      <c r="B4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" ht="52.5" spans="2:4">
+      <c r="B5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" ht="105" spans="2:4">
+      <c r="B6" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2153,7 +3006,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -2166,60 +3019,60 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>79</v>
+        <v>112</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2234,15 +3087,15 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.75" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="6" customWidth="1"/>
     <col min="3" max="3" width="43.875" customWidth="1"/>
-    <col min="4" max="4" width="37.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="37.75" style="6" customWidth="1"/>
     <col min="5" max="5" width="27.625" customWidth="1"/>
     <col min="6" max="6" width="23.375" customWidth="1"/>
     <col min="7" max="7" width="18.875" style="9" customWidth="1"/>
@@ -2250,61 +3103,61 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="8" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" ht="93" customHeight="1" spans="1:7">
       <c r="A2" s="8" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>92</v>
+        <v>121</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="3" ht="24" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>94</v>
+        <v>127</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2319,31 +3172,31 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="39.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="39.875" style="6" customWidth="1"/>
     <col min="2" max="2" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A1" s="5" t="s">
-        <v>96</v>
+      <c r="A1" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2" ht="24" spans="1:1">
-      <c r="A2" s="6" t="s">
-        <v>97</v>
+      <c r="A2" s="7" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" ht="47" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>99</v>
+        <v>132</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2374,7 +3227,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -2385,31 +3238,35 @@
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" ht="22.5" spans="1:2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" ht="28" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4"/>
-      <c r="B4"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" ht="31" customHeight="1" spans="1:2">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/二次开发笔记SS.xlsx
+++ b/二次开发笔记SS.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
   <si>
     <t>功能描述</t>
   </si>
@@ -293,7 +293,7 @@
     earth.Event.OnCreateGeometry = function(pval, type) {
         drawV3s = pval;
         circleSearch(layerId);
-        earth.Event.OnCreateGeometry = function() {};
+        earth.Event.OnCreateGeometry = function() {};//清除创建矢量面事件
     }
     earth.ShapeCreator.CreateCircle();
 }
@@ -320,6 +320,44 @@
 }</t>
   </si>
   <si>
+    <t>经纬度坐标与平面坐标转换</t>
+  </si>
+  <si>
+    <t>CoordinateTransform.sysDatum.</t>
+  </si>
+  <si>
+    <t>关闭某功能后清除该功能生成的对象(圆，多边形...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> window.onunload = function() {
+//  earth.ShapeCreator.Clear();
+//...}</t>
+  </si>
+  <si>
+    <t>输入字段过滤</t>
+  </si>
+  <si>
+    <t>checkStr()</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>直接处理输入字符</t>
+  </si>
+  <si>
+    <t>只准输入数字和小数点</t>
+  </si>
+  <si>
+    <t>checkAllNum()</t>
+  </si>
+  <si>
+    <t>只允许输入正整数</t>
+  </si>
+  <si>
+    <t>checkPositiveInt()</t>
+  </si>
+  <si>
     <t>接口调用</t>
   </si>
   <si>
@@ -375,6 +413,16 @@
 earth.ShapeCreator.Clear();
 1.earth.ShapeCreator.CreateCircle();//画圆
 2.earth.ShapeCreator.CreatePolygon();//画多边形</t>
+  </si>
+  <si>
+    <t>飞行定位</t>
+  </si>
+  <si>
+    <t>earth.GlobeObserver.FlytoLookat(pointX, pointY, 100, 45, 45, 45, 500, 1);</t>
+  </si>
+  <si>
+    <t>pointX [平面X坐标]
+pointY [平面Y坐标]</t>
   </si>
   <si>
     <t>地质体</t>
@@ -893,6 +941,95 @@
 }</t>
   </si>
   <si>
+    <t>判断浏览器是否处于缩放状态</t>
+  </si>
+  <si>
+    <t>// 判断pc浏览器是否缩放，若返回1则为默认无缩放，如果大于1则是放大，否则缩小
+function getZoom() {
+    var ratio = 0;
+    var screen = window.screen;
+    var ua = navigator.userAgent.toLowerCase();
+    if (window.devicePixelRatio !== undefined) {
+        ratio = window.devicePixelRatio;
+    } else if (~ua.indexOf('msie')) {
+        if (screen.deviceXDPI &amp;&amp; screen.logicalXDPI) {
+            ratio = screen.deviceXDPI / screen.logicalXDPI;
+        }
+    } else if (window.outerWidth !== undefined &amp;&amp; window.innerWidth !== undefined) {
+        ratio = window.outerWidth / window.innerWidth;
+    }
+    return ratio;
+}</t>
+  </si>
+  <si>
+    <t>解析浏览器url参数</t>
+  </si>
+  <si>
+    <t>//获取location参数
+var parseLocation = function() {
+    var urlSegs = location.href.split("?");
+    var params;
+    var keyvalue = null;
+    var results = {};
+    if (urlSegs.length &gt; 1) {
+        params = urlSegs[1].split("&amp;");
+        for (var i = 0; i &lt; params.length; i++) {
+            keyvalue = params[i].split("=");
+            results[keyvalue[0]] = keyvalue[1];
+        }
+    }
+    return results;
+};</t>
+  </si>
+  <si>
+    <t>json转换xml</t>
+  </si>
+  <si>
+    <t>/**
+ * [json2xml json对象转xml]
+ * @param  {[object]}     obj   [json对象]
+ * @param  {[array]}      filter [要过滤的属性]
+ * @param  {[string||Number]} root   [开头标签]
+ * @return {[type]}          [xml字符串]
+ */
+function json2xml(obj, filter, root) {
+    // xml里的属性字段
+    var arr = ["id", "name", "userType", "LayerType", "dbName"];
+    var xml = root || 'xml';
+    return _json2xml(xml, obj).replace('&lt;' + xml + '&gt;', '&lt;?xml version="1.0" encoding="UTF-8" ?&gt;&lt;' + xml + '&gt;');
+    function _json2xml(key, obj) {
+        var xml = '';
+        if (Array.isArray(obj)) {
+            for (var i = 0; i &lt; obj.length; ++i) {
+                xml += _json2xml(key, obj[i]);
+            }
+            return xml;
+        } else if (typeof obj === 'object') {
+            var str = '';
+            for (var _key in obj) {
+                // 过滤字段
+                if (filter &amp;&amp; filter.indexOf(_key)) {
+                    continue;
+                }
+                // 寻找属性
+                if (arr.indexOf(_key) != -1) {
+                    str += ' ' + _key + '="' + obj[_key] + '"';
+                } else {
+                    xml += _json2xml(_key, obj[_key]);
+                }
+            }
+            return _concat(key, xml, key + str);
+        } else {
+            return _concat(key, obj);
+        }
+    }
+    function _concat(key, item, attrkey) {
+        var key_1 = attrkey || key;
+        return '&lt;' + key_1 + '&gt;' + item + '&lt;/' + key + '&gt;';
+    }
+}</t>
+  </si>
+  <si>
     <t>效果</t>
   </si>
   <si>
@@ -918,10 +1055,50 @@
     <t>https://www.cnblogs.com/11lang/p/6818037.html</t>
   </si>
   <si>
+    <t>强制不换行</t>
+  </si>
+  <si>
+    <t>white-space:nowrap;</t>
+  </si>
+  <si>
+    <t>单词内断句</t>
+  </si>
+  <si>
+    <t>word-wrap: break-word;</t>
+  </si>
+  <si>
+    <t>允许单词内断句，首先会尝试挪到下一行，看看下一行的宽度够不够，不够的话就进行单词内的断句</t>
+  </si>
+  <si>
+    <t>word-break:break-all;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">断句时，不会把长单词挪到下一行，而是直接进行单词内的断句 </t>
+  </si>
+  <si>
+    <t>超出部分显示省略号</t>
+  </si>
+  <si>
+    <t>text-overflow:ellipsis;overflow:hidden;</t>
+  </si>
+  <si>
     <t>表格标题</t>
   </si>
   <si>
     <t>&lt;caption&gt;我的标题&lt;/caption&gt;</t>
+  </si>
+  <si>
+    <t>带下拉的input</t>
+  </si>
+  <si>
+    <t>&lt;input type="text" list="itemlist"&gt;
+   &lt;datalist id="itemlist"&gt;
+       &lt;option&gt;item1&lt;/option&gt;
+       &lt;option&gt;item2&lt;/option&gt;
+   &lt;/datalist&gt;</t>
+  </si>
+  <si>
+    <t>注意list属性值和datalist的id一致</t>
   </si>
 </sst>
 </file>
@@ -929,10 +1106,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -965,6 +1142,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,23 +1185,193 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="方正仿宋简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="方正仿宋简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="方正仿宋简体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="方正仿宋简体"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1027,183 +1381,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="方正仿宋简体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="方正仿宋简体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1222,7 +1399,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,7 +1453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,13 +1471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,13 +1483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,13 +1495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,13 +1513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1330,25 +1531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,31 +1555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,7 +1573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,6 +1590,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1431,30 +1623,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1469,6 +1637,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1499,17 +1682,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1521,10 +1698,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1533,133 +1710,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1667,6 +1844,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1679,119 +1859,116 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2439,322 +2616,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="22" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="16" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="25" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.75" style="24" customWidth="1"/>
-    <col min="6" max="6" width="26" style="25" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="38.75" style="27" customWidth="1"/>
+    <col min="6" max="6" width="26" style="19" customWidth="1"/>
     <col min="7" max="7" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="27" customHeight="1" spans="1:6">
-      <c r="A1" s="26" t="s">
+    <row r="1" s="24" customFormat="1" ht="27" customHeight="1" spans="1:6">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:6">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:6">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:6">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" ht="51" spans="1:6">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:6">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="24" spans="1:6">
-      <c r="A7" s="27" t="s">
+    <row r="7" ht="22.5" spans="1:6">
+      <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="56.25" spans="1:6">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:6">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" ht="21" customHeight="1" spans="1:6">
-      <c r="A10" s="12"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="11" t="s">
+    <row r="10" ht="21" customHeight="1" spans="2:6">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="24" spans="1:6">
-      <c r="A11" s="27" t="s">
+    <row r="11" ht="22.5" spans="1:6">
+      <c r="A11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:7">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="37" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" ht="52.5" spans="1:6">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" ht="22.5" spans="1:7">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="41" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" ht="33.75" spans="1:2">
+      <c r="A25" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F11">
     <extLst/>
   </autoFilter>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F27:F29"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2764,25 +3005,39 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="46.25" customWidth="1"/>
+    <col min="3" max="3" width="51.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" ht="56.25" spans="1:3">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2793,11 +3048,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2809,77 +3066,88 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>63</v>
+      <c r="B1" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:4">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>70</v>
+        <v>81</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" ht="54" spans="1:2">
       <c r="A9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>79</v>
+      <c r="B9" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:3">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2891,89 +3159,91 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor theme="6"/>
+  </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="9" style="15"/>
-    <col min="3" max="3" width="24.75" style="15" customWidth="1"/>
-    <col min="4" max="4" width="43.375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="27.625" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="15"/>
+    <col min="1" max="2" width="9" style="19"/>
+    <col min="3" max="3" width="24.75" style="19" customWidth="1"/>
+    <col min="4" max="4" width="43.375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="65" customHeight="1" spans="1:4">
-      <c r="A1" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>83</v>
+      <c r="A1" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" ht="73.5" spans="2:4">
-      <c r="B2" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>86</v>
+      <c r="B2" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" ht="105" spans="2:4">
-      <c r="B3" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>89</v>
+      <c r="B3" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" ht="105" spans="2:4">
-      <c r="B4" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>89</v>
+      <c r="B4" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="52.5" spans="2:4">
-      <c r="B5" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>94</v>
+      <c r="B5" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" ht="105" spans="2:4">
-      <c r="B6" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>97</v>
+      <c r="B6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2986,7 +3256,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor theme="9" tint="0.4"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3002,7 +3274,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor theme="4" tint="0.4"/>
+  </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3019,60 +3293,60 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>113</v>
+        <v>127</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3083,81 +3357,83 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor theme="4" tint="-0.5"/>
+  </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="9" customWidth="1"/>
     <col min="3" max="3" width="43.875" customWidth="1"/>
-    <col min="4" max="4" width="37.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="37.75" style="9" customWidth="1"/>
     <col min="5" max="5" width="27.625" customWidth="1"/>
     <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="A1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>119</v>
+      <c r="E1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" ht="93" customHeight="1" spans="1:7">
-      <c r="A2" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>126</v>
+      <c r="A2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="3" ht="24" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>128</v>
+      <c r="A3" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
-        <v>129</v>
+      <c r="A4" s="12" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3168,35 +3444,61 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="39.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="1" max="1" width="39.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A1" s="6" t="s">
-        <v>130</v>
+      <c r="A1" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="2" ht="24" spans="1:1">
-      <c r="A2" s="7" t="s">
-        <v>131</v>
+      <c r="A2" s="8" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3" ht="47" customHeight="1" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>133</v>
+      <c r="A3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3207,7 +3509,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3223,52 +3527,98 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <sheetPr>
+    <tabColor theme="3" tint="0.4"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="30.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>135</v>
+      <c r="A1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>137</v>
+      <c r="A2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>139</v>
+      <c r="A3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="4" ht="31" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>141</v>
+        <v>161</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" ht="14" customHeight="1" spans="1:2">
+      <c r="A5"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" ht="19" customHeight="1" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" ht="36" spans="1:3">
+      <c r="A7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" ht="24" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" ht="23" customHeight="1" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/二次开发笔记SS.xlsx
+++ b/二次开发笔记SS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10500" tabRatio="843"/>
+    <workbookView windowWidth="21495" windowHeight="10500" tabRatio="843" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="js代码封装" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="陷阱" sheetId="8" r:id="rId8"/>
     <sheet name="CSS笔记" sheetId="9" r:id="rId9"/>
     <sheet name="html笔记" sheetId="10" r:id="rId10"/>
+    <sheet name="jQuery" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">js代码封装!$A$1:$F$11</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
   <si>
     <t>功能描述</t>
   </si>
@@ -423,6 +424,30 @@
   <si>
     <t>pointX [平面X坐标]
 pointY [平面Y坐标]</t>
+  </si>
+  <si>
+    <t>通过经纬度坐标点获取高程（忽略建筑）</t>
+  </si>
+  <si>
+    <t>pointZ = earth.Measure.MeasureTerrainAltitude(pointX,pointY)</t>
+  </si>
+  <si>
+    <t>通过经纬度坐标点获取高程（含建筑）</t>
+  </si>
+  <si>
+    <t>pointZ = earth.Measure.MeasureAltitude(pointX,pointY)</t>
+  </si>
+  <si>
+    <t>带汉字的查询</t>
+  </si>
+  <si>
+    <t>earth.Event.OnEditDatabaseFinished = function(pRes, pFeature)function(pRes, pFeature)查询结果回调</t>
+  </si>
+  <si>
+    <t>mQueryString查询数据的url+sendData</t>
+  </si>
+  <si>
+    <t>earth.DatabaseManager.GetXml(mQueryString)</t>
   </si>
   <si>
     <t>地质体</t>
@@ -702,6 +727,30 @@
     <t>该参数未定义，已污染成全局变量</t>
   </si>
   <si>
+    <t xml:space="preserve">longitude </t>
+  </si>
+  <si>
+    <t>经度</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>纬度</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>高程</t>
+  </si>
+  <si>
+    <t>Coordinates</t>
+  </si>
+  <si>
+    <t>坐标</t>
+  </si>
+  <si>
     <t>事件名称</t>
   </si>
   <si>
@@ -1030,6 +1079,25 @@
 }</t>
   </si>
   <si>
+    <t>js的onpaste事件(oncopy,oncut)</t>
+  </si>
+  <si>
+    <t>js创建下载任务</t>
+  </si>
+  <si>
+    <t>window.open(downloadFileUrl)</t>
+  </si>
+  <si>
+    <t>//方法二：通过form
+        $eleBtn2.click(function(){
+            var $eleForm = $("&lt;form method='get'&gt;&lt;/form&gt;");
+            $eleForm.attr("action","https://codeload.github.com/douban/douban-client/legacy.zip/master");
+            $(document.body).append($eleForm);
+            //提交表单，实现下载
+            $eleForm.submit();
+        });</t>
+  </si>
+  <si>
     <t>效果</t>
   </si>
   <si>
@@ -1099,6 +1167,57 @@
   </si>
   <si>
     <t>注意list属性值和datalist的id一致</t>
+  </si>
+  <si>
+    <t>非input元素变成可编辑状态</t>
+  </si>
+  <si>
+    <t>contenteditable属性为true</t>
+  </si>
+  <si>
+    <t>H5新属性</t>
+  </si>
+  <si>
+    <t>触发指定元素的指定事件</t>
+  </si>
+  <si>
+    <t>Ele.trigger("Event")</t>
+  </si>
+  <si>
+    <t>滚动条插件mCustomScrollbar</t>
+  </si>
+  <si>
+    <t>具有高度值（height）
+最大高度值（max-height）
+具有overflow属性值为auto或者hidden
+元素的内容具有足够的高度（或宽度，针对横向滚动条）</t>
+  </si>
+  <si>
+    <t>元素CSS条件</t>
+  </si>
+  <si>
+    <t>$("#ele").mCustomScrollbar({})</t>
+  </si>
+  <si>
+    <t>初始化方法1</t>
+  </si>
+  <si>
+    <t>添加class="mCustomScrollbar"</t>
+  </si>
+  <si>
+    <t>初始化方法2</t>
+  </si>
+  <si>
+    <t>axis:"x"</t>
+  </si>
+  <si>
+    <t>方向，js/属性</t>
+  </si>
+  <si>
+    <t>$(selector).mCustomScrollbar("update")</t>
+  </si>
+  <si>
+    <t>更新/重新启用</t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -1220,22 +1339,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1256,14 +1382,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1272,21 +1390,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1302,9 +1405,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1318,8 +1420,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1334,30 +1460,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1399,7 +1518,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,13 +1662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,13 +1680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,133 +1692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,36 +1709,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1673,6 +1762,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1681,15 +1809,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1698,155 +1817,164 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1886,9 +2014,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1916,8 +2041,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1928,9 +2053,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1940,15 +2062,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1966,9 +2082,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2621,366 +2734,365 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="16" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="25" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="18" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="38.75" style="27" customWidth="1"/>
-    <col min="6" max="6" width="26" style="19" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="38.75" style="29" customWidth="1"/>
+    <col min="6" max="6" width="26" style="21" customWidth="1"/>
     <col min="7" max="7" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" ht="27" customHeight="1" spans="1:6">
-      <c r="A1" s="28" t="s">
+    <row r="1" s="26" customFormat="1" ht="27" customHeight="1" spans="1:6">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:6">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="25.5" spans="1:6">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:6">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" ht="51" spans="1:6">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:6">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="22.5" spans="1:6">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="56.25" spans="1:6">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:6">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="28" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="2:6">
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="35"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
       <c r="E10" s="34"/>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" ht="22.5" spans="1:6">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="35" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:7">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" ht="52.5" spans="1:6">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" ht="22.5" spans="1:7">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="40" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="25" ht="33.75" spans="1:2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="28" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3008,13 +3120,13 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="46.25" customWidth="1"/>
@@ -3023,24 +3135,111 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" ht="56.25" spans="1:3">
       <c r="A3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.25" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -3051,33 +3250,33 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="61.25" customWidth="1"/>
     <col min="3" max="3" width="56.125" customWidth="1"/>
     <col min="4" max="4" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B2" t="s">
@@ -3091,18 +3290,18 @@
       </c>
     </row>
     <row r="3" ht="27" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B3" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B5" t="s">
@@ -3110,7 +3309,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B6" t="s">
@@ -3121,7 +3320,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B7" t="s">
@@ -3132,25 +3331,64 @@
       </c>
     </row>
     <row r="9" ht="54" spans="1:2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:3">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="12" t="s">
         <v>94</v>
       </c>
     </row>
+    <row r="12" ht="23" customHeight="1" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="27"/>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A15:A16"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -3165,85 +3403,85 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="9" style="19"/>
-    <col min="3" max="3" width="24.75" style="19" customWidth="1"/>
-    <col min="4" max="4" width="43.375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="27.625" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="19"/>
+    <col min="1" max="2" width="9" style="21"/>
+    <col min="3" max="3" width="24.75" style="21" customWidth="1"/>
+    <col min="4" max="4" width="43.375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" ht="65" customHeight="1" spans="1:4">
-      <c r="A1" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>98</v>
+      <c r="A1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="2" ht="73.5" spans="2:4">
-      <c r="B2" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>101</v>
+      <c r="B2" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="3" ht="105" spans="2:4">
-      <c r="B3" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>104</v>
+      <c r="B3" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" ht="105" spans="2:4">
-      <c r="B4" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>104</v>
+      <c r="B4" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" ht="52.5" spans="2:4">
-      <c r="B5" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>109</v>
+      <c r="B5" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="6" ht="105" spans="2:4">
-      <c r="B6" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>112</v>
+      <c r="B6" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3262,7 +3500,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3277,13 +3515,13 @@
   <sheetPr>
     <tabColor theme="4" tint="0.4"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="23.375" customWidth="1"/>
     <col min="2" max="2" width="65.125" customWidth="1"/>
@@ -3293,60 +3531,92 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>128</v>
+        <v>135</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3363,77 +3633,77 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="12" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="12" customWidth="1"/>
     <col min="3" max="3" width="43.875" customWidth="1"/>
-    <col min="4" max="4" width="37.75" style="9" customWidth="1"/>
+    <col min="4" max="4" width="37.75" style="12" customWidth="1"/>
     <col min="5" max="5" width="27.625" customWidth="1"/>
     <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="14" t="s">
+      <c r="A1" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>134</v>
+      <c r="E1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="2" ht="93" customHeight="1" spans="1:7">
-      <c r="A2" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>141</v>
+      <c r="A2" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="3" ht="24" spans="1:2">
-      <c r="A3" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>143</v>
+      <c r="A3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
-        <v>144</v>
+      <c r="A4" s="15" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3447,58 +3717,74 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="39.875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="39.875" style="12" customWidth="1"/>
     <col min="2" max="2" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A1" s="9" t="s">
-        <v>145</v>
+      <c r="A1" s="12" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="2" ht="24" spans="1:1">
-      <c r="A2" s="8" t="s">
-        <v>146</v>
+      <c r="A2" s="11" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="3" ht="47" customHeight="1" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>148</v>
+      <c r="A3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>150</v>
+      <c r="A4" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>152</v>
+      <c r="A5" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>154</v>
+      <c r="A6" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3538,81 +3824,81 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="30.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="30.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="6" customWidth="1"/>
     <col min="3" max="3" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>156</v>
+      <c r="A1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>158</v>
+      <c r="A2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>160</v>
+      <c r="A3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="4" ht="31" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>181</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1" spans="1:2">
       <c r="A5"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" ht="19" customHeight="1" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>164</v>
+      <c r="A6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" ht="36" spans="1:3">
-      <c r="A7" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>167</v>
+      <c r="A7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" ht="24" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>169</v>
+      <c r="A8" s="9"/>
+      <c r="B8" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="9" ht="23" customHeight="1" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>171</v>
+      <c r="A9" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/二次开发笔记SS.xlsx
+++ b/二次开发笔记SS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10500" tabRatio="843" activeTab="10"/>
+    <workbookView windowWidth="28080" windowHeight="13200" tabRatio="869" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="js代码封装" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,17 @@
     <sheet name="底层服务说明" sheetId="3" r:id="rId3"/>
     <sheet name="配置文件说明" sheetId="4" r:id="rId4"/>
     <sheet name="图层说明" sheetId="5" r:id="rId5"/>
-    <sheet name="js常见名词" sheetId="6" r:id="rId6"/>
-    <sheet name="技巧" sheetId="7" r:id="rId7"/>
-    <sheet name="陷阱" sheetId="8" r:id="rId8"/>
-    <sheet name="CSS笔记" sheetId="9" r:id="rId9"/>
-    <sheet name="html笔记" sheetId="10" r:id="rId10"/>
-    <sheet name="jQuery" sheetId="11" r:id="rId11"/>
+    <sheet name="基础知识" sheetId="13" r:id="rId6"/>
+    <sheet name="ES6" sheetId="15" r:id="rId7"/>
+    <sheet name="js常见名词" sheetId="6" r:id="rId8"/>
+    <sheet name="技巧" sheetId="7" r:id="rId9"/>
+    <sheet name="陷阱" sheetId="8" r:id="rId10"/>
+    <sheet name="CSS笔记" sheetId="9" r:id="rId11"/>
+    <sheet name="html笔记" sheetId="10" r:id="rId12"/>
+    <sheet name="jQuery" sheetId="11" r:id="rId13"/>
+    <sheet name="正则表达式" sheetId="12" r:id="rId14"/>
+    <sheet name="工具站点" sheetId="14" r:id="rId15"/>
+    <sheet name="教程链接" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">js代码封装!$A$1:$F$11</definedName>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323">
   <si>
     <t>功能描述</t>
   </si>
@@ -63,6 +68,9 @@
   </si>
   <si>
     <t>StampLayer.js</t>
+  </si>
+  <si>
+    <t>气泡Balloon的相关方法都在stampLayer.js</t>
   </si>
   <si>
     <t>清除详细信息气泡</t>
@@ -321,12 +329,6 @@
 }</t>
   </si>
   <si>
-    <t>经纬度坐标与平面坐标转换</t>
-  </si>
-  <si>
-    <t>CoordinateTransform.sysDatum.</t>
-  </si>
-  <si>
     <t>关闭某功能后清除该功能生成的对象(圆，多边形...)</t>
   </si>
   <si>
@@ -357,6 +359,16 @@
   </si>
   <si>
     <t>checkPositiveInt()</t>
+  </si>
+  <si>
+    <t>钻孔的显示隐藏</t>
+  </si>
+  <si>
+    <t>if(item.checkedOld) { //check时加载钻孔
+    editGeologyLayer.LoadDrillsByProjectNum(item.id);
+} else { //unchecked时卸载钻孔
+    editGeologyLayer.unLoadDrillsByProjectNum(item.id);
+}</t>
   </si>
   <si>
     <t>接口调用</t>
@@ -426,6 +438,17 @@
 pointY [平面Y坐标]</t>
   </si>
   <si>
+    <t>获取当前视角信息</t>
+  </si>
+  <si>
+    <t>earth.GlobeObserver.Pose;
+earth.GlobeObserver.TargetPose;</t>
+  </si>
+  <si>
+    <t>经纬度信息
+视角信息</t>
+  </si>
+  <si>
     <t>通过经纬度坐标点获取高程（忽略建筑）</t>
   </si>
   <si>
@@ -448,6 +471,49 @@
   </si>
   <si>
     <t>earth.DatabaseManager.GetXml(mQueryString)</t>
+  </si>
+  <si>
+    <t>获取单个钻孔对象</t>
+  </si>
+  <si>
+    <t>var editGeologyLayer = top.editGeologyLayer;
+selectDrill = editGeologyLayer.GetHoleById(drillNO)</t>
+  </si>
+  <si>
+    <t>此处用getLayerByGuid返回null</t>
+  </si>
+  <si>
+    <t>经纬度转平面</t>
+  </si>
+  <si>
+    <t>datumObj.des_BLH_to_src_xy(经度，纬度，高程)</t>
+  </si>
+  <si>
+    <t>坐标转换对象需要在html中引入相关object标签，然后根据对应空间参考文件生成转换对象datumObj</t>
+  </si>
+  <si>
+    <t>平面转经纬度</t>
+  </si>
+  <si>
+    <t>datumObj._src_xy_to_des_BLH(经度，纬度，高程)</t>
+  </si>
+  <si>
+    <t>添加对象到球</t>
+  </si>
+  <si>
+    <t>earth.AttachObject(element)</t>
+  </si>
+  <si>
+    <t>移除球上的对象</t>
+  </si>
+  <si>
+    <t>earth.DetachObject(element)</t>
+  </si>
+  <si>
+    <t>创建对象</t>
+  </si>
+  <si>
+    <t>earth.Factory.Create...</t>
   </si>
   <si>
     <t>地质体</t>
@@ -727,7 +793,7 @@
     <t>该参数未定义，已污染成全局变量</t>
   </si>
   <si>
-    <t xml:space="preserve">longitude </t>
+    <t>longitude</t>
   </si>
   <si>
     <t>经度</t>
@@ -751,6 +817,181 @@
     <t>坐标</t>
   </si>
   <si>
+    <t>US_KEY</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>US_FEATURE</t>
+  </si>
+  <si>
+    <t>图层类型</t>
+  </si>
+  <si>
+    <t>SYSTEMPARAMS</t>
+  </si>
+  <si>
+    <t>系统设置中选中的图层的相关参数</t>
+  </si>
+  <si>
+    <t>editGeologyLayer</t>
+  </si>
+  <si>
+    <t>当前编辑的图层，SYSTEMPARAMS.geology对应的地质体图层</t>
+  </si>
+  <si>
+    <t>selectedProjectNode</t>
+  </si>
+  <si>
+    <t>当前图层中单击的（高亮）地质体工程（非选中，唯一）</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>深度。即埋深</t>
+  </si>
+  <si>
+    <t>Thick</t>
+  </si>
+  <si>
+    <t>厚度。</t>
+  </si>
+  <si>
+    <t>alitude</t>
+  </si>
+  <si>
+    <t>标高。相对于海平面高度。地面高程-深度</t>
+  </si>
+  <si>
+    <t>教程类型</t>
+  </si>
+  <si>
+    <t>教程地址</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>Vue</t>
+  </si>
+  <si>
+    <t>Vue链接：https://pan.baidu.com/s/15g-kbBS4XrS_cO3-3M6Pew 密码：31ac</t>
+  </si>
+  <si>
+    <t>31ac</t>
+  </si>
+  <si>
+    <t>传说是2018年6月份录得，覆盖内容很详细，但没看（已转存个人度盘vue201806）</t>
+  </si>
+  <si>
+    <t>ES6新名词</t>
+  </si>
+  <si>
+    <t>示例</t>
+  </si>
+  <si>
+    <t>ES5实现</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defaultParameters(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>默认参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>给函数定义形参初始值</t>
+  </si>
+  <si>
+    <t>function func(param1 = 10,param2 = "line"){
+}</t>
+  </si>
+  <si>
+    <t>function func(param1,param2){
+ param1 = param1 || 10;
+ param2 = param2 || "line";
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>templateLiterals(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模板文本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>用``包裹起来的字符串</t>
+  </si>
+  <si>
+    <t>`hello world`</t>
+  </si>
+  <si>
+    <t>"hello world"</t>
+  </si>
+  <si>
+    <t>模板文本并不能转义特殊字符，但是会保留所有字符串内容，含多空格、换行符、tab等。复杂的模板文本还支持占位符和多行字符串</t>
+  </si>
+  <si>
+    <t>占位符</t>
+  </si>
+  <si>
+    <t>${表达式}</t>
+  </si>
+  <si>
     <t>事件名称</t>
   </si>
   <si>
@@ -758,9 +999,6 @@
   </si>
   <si>
     <t>实现要点</t>
-  </si>
-  <si>
-    <t>示例</t>
   </si>
   <si>
     <t>示例2</t>
@@ -976,6 +1214,30 @@
     <t>事件捕获</t>
   </si>
   <si>
+    <t>向上取整</t>
+  </si>
+  <si>
+    <t>num1-num0&lt;1 &amp;&amp; num1&gt;num0</t>
+  </si>
+  <si>
+    <t>return num1 = math.ceil(num0)</t>
+  </si>
+  <si>
+    <t>向下取整</t>
+  </si>
+  <si>
+    <t>Math.floor(num0)</t>
+  </si>
+  <si>
+    <t>延时发送请求</t>
+  </si>
+  <si>
+    <t>//   var nowTime = (new Date()).getTime();
+//   while(((new Date()).getTime() - nowTime) &lt; 500){
+//    continue;
+//   }</t>
+  </si>
+  <si>
     <t>性能优化的主要思想之一就是减少DOM操作</t>
   </si>
   <si>
@@ -1089,13 +1351,13 @@
   </si>
   <si>
     <t>//方法二：通过form
-        $eleBtn2.click(function(){
-            var $eleForm = $("&lt;form method='get'&gt;&lt;/form&gt;");
-            $eleForm.attr("action","https://codeload.github.com/douban/douban-client/legacy.zip/master");
-            $(document.body).append($eleForm);
-            //提交表单，实现下载
-            $eleForm.submit();
-        });</t>
+$eleBtn2.click(function(){
+ var $eleForm = $("&lt;form method='get'&gt;&lt;/form&gt;");
+$eleForm.attr("action","https://codeload.github.com/douban/douban-client/legacy.zip/master");
+ $(document.body).append($eleForm);
+//提交表单，实现下载
+ $eleForm.submit();
+ });</t>
   </si>
   <si>
     <t>效果</t>
@@ -1117,6 +1379,12 @@
     <t>input::-ms-clear {display: none;}</t>
   </si>
   <si>
+    <t>去除IE下select后的默认向下箭头</t>
+  </si>
+  <si>
+    <t>select::-ms-expand{display:none;}</t>
+  </si>
+  <si>
     <t>滚动条</t>
   </si>
   <si>
@@ -1147,7 +1415,15 @@
     <t>超出部分显示省略号</t>
   </si>
   <si>
-    <t>text-overflow:ellipsis;overflow:hidden;</t>
+    <t>text-overflow:ellipsis;
+overflow:hidden;
+white-space:nowrap;</t>
+  </si>
+  <si>
+    <t>不透明度</t>
+  </si>
+  <si>
+    <t>opacity:0.9;filter:alpha(opacity=90);</t>
   </si>
   <si>
     <t>表格标题</t>
@@ -1178,6 +1454,15 @@
     <t>H5新属性</t>
   </si>
   <si>
+    <t>设置页面不缓存</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;meta http-equiv="Pragma" content="no-cache"/&gt;
+  &lt;meta http-equiv="Cache-Control" content="no-cache"/&gt;
+  &lt;meta http-equiv="expires" content="0" /&gt;
+  &lt;meta http-equiv="Cache" content="no-cache"/&gt;</t>
+  </si>
+  <si>
     <t>触发指定元素的指定事件</t>
   </si>
   <si>
@@ -1208,7 +1493,7 @@
     <t>初始化方法2</t>
   </si>
   <si>
-    <t>axis:"x"</t>
+    <t>axis:"yx"</t>
   </si>
   <si>
     <t>方向，js/属性</t>
@@ -1218,6 +1503,221 @@
   </si>
   <si>
     <t>更新/重新启用</t>
+  </si>
+  <si>
+    <t>滚动动画时间{scrollInertia:300}</t>
+  </si>
+  <si>
+    <t>表th固定不滚动，则在选择器后加上" .datagrid-view2 .datagrid-body"</t>
+  </si>
+  <si>
+    <t>设置ajax不缓存</t>
+  </si>
+  <si>
+    <t>参数：,cache: false,ifModified:true,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">结合easyUI,mCustomScrollbar插件实现 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表格滚动但表头固定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的效果</t>
+    </r>
+  </si>
+  <si>
+    <t>$($(".datagrid-body")[1]).mCustomScrollbar();</t>
+  </si>
+  <si>
+    <t>表头固定</t>
+  </si>
+  <si>
+    <t>easyUI,mCustomScrollbar</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mCustomScrollbar插件 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新滚动条</t>
+    </r>
+  </si>
+  <si>
+    <t>$($(".datagrid-body")[1]).mCustomScrollbar("destroy");
+$($(".datagrid-body")[1]).mCustomScrollbar();</t>
+  </si>
+  <si>
+    <t>更新滚动条（不要用update）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">结合easyUI,mCustomScrollbar插件实现 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据更新同时更新滚动条，表格滚动但表头固定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的效果</t>
+    </r>
+  </si>
+  <si>
+    <t>if (lastResult) {
+ $($(".datagrid-body")[1]).mCustomScrollbar("destroy");
+}
+$('#dg').datagrid('loadData', dataLoad);
+$($(".datagrid-body")[1]).mCustomScrollbar();</t>
+  </si>
+  <si>
+    <t>两者结合</t>
+  </si>
+  <si>
+    <t>easyUI去表格右侧留白</t>
+  </si>
+  <si>
+    <t>fitColumns:true,
+scrollbarSize:0</t>
+  </si>
+  <si>
+    <t>基础语法</t>
+  </si>
+  <si>
+    <t>两部分组成：规则+匹配字符</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>任意一个字符</t>
+  </si>
+  <si>
+    <t>0个或多个字符</t>
+  </si>
+  <si>
+    <t>\d</t>
+  </si>
+  <si>
+    <t>一个数字</t>
+  </si>
+  <si>
+    <t>文章站点</t>
+  </si>
+  <si>
+    <t>https://juejin.im/post/5bda4e6fe51d45681f245274</t>
+  </si>
+  <si>
+    <t>工具类型</t>
+  </si>
+  <si>
+    <t>工具名称</t>
+  </si>
+  <si>
+    <t>工具地址</t>
+  </si>
+  <si>
+    <t>图片优化</t>
+  </si>
+  <si>
+    <t>智图</t>
+  </si>
+  <si>
+    <t>https://zhitu.isux.us/</t>
+  </si>
+  <si>
+    <t>TinyJPG</t>
+  </si>
+  <si>
+    <t>https://tinyjpg.com/</t>
+  </si>
+  <si>
+    <t>托管</t>
+  </si>
+  <si>
+    <t>图片托管</t>
+  </si>
+  <si>
+    <t>https://imgse.com/</t>
+  </si>
+  <si>
+    <t>仅限图片</t>
+  </si>
+  <si>
+    <t>https://imgchr.com/</t>
+  </si>
+  <si>
+    <t>仅限图片（已注册742@q,但未验证）</t>
+  </si>
+  <si>
+    <t>教程分类</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>https://github.com/qyuhen/book</t>
+  </si>
+  <si>
+    <t>https://github.com/astaxie/build-web-application-with-golang/blob/master/zh/preface.md</t>
   </si>
 </sst>
 </file>
@@ -1226,11 +1726,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,7 +1739,52 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1248,6 +1793,13 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1291,6 +1843,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -1324,13 +1883,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
@@ -1339,7 +1891,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1367,31 +1950,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1405,8 +1966,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1420,32 +1982,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1460,25 +1998,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1518,7 +2062,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,13 +2098,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,151 +2236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1712,11 +2256,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1731,16 +2281,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1762,6 +2312,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1770,42 +2331,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1817,10 +2361,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1829,258 +2373,318 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2181,7 +2785,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6562725" y="9525"/>
+          <a:off x="11020425" y="9525"/>
           <a:ext cx="1276350" cy="795020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2206,7 +2810,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1247775</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>868045</xdr:rowOff>
+      <xdr:rowOff>666750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2230,8 +2834,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6562725" y="825500"/>
-          <a:ext cx="1247775" cy="868045"/>
+          <a:off x="11020425" y="825500"/>
+          <a:ext cx="1247775" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2255,7 +2859,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1350010</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1252855</xdr:rowOff>
+      <xdr:rowOff>933450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2279,8 +2883,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6581775" y="1786890"/>
-          <a:ext cx="1330960" cy="1224915"/>
+          <a:off x="11039475" y="1520190"/>
+          <a:ext cx="1330960" cy="905510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2304,7 +2908,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1995170</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1199515</xdr:rowOff>
+      <xdr:rowOff>933450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2328,8 +2932,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6562725" y="3092450"/>
-          <a:ext cx="1995170" cy="1199515"/>
+          <a:off x="11020425" y="2425700"/>
+          <a:ext cx="1995170" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2353,7 +2957,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1038860</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>666750</xdr:rowOff>
+      <xdr:rowOff>533400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2377,8 +2981,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6562725" y="4425950"/>
-          <a:ext cx="1038860" cy="666750"/>
+          <a:off x="11020425" y="3359150"/>
+          <a:ext cx="1038860" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2402,7 +3006,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>186690</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1333500</xdr:rowOff>
+      <xdr:rowOff>933450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2426,8 +3030,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6562725" y="5092700"/>
-          <a:ext cx="2977515" cy="1333500"/>
+          <a:off x="11020425" y="3892550"/>
+          <a:ext cx="2977515" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2732,382 +3336,384 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="18" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="35" customWidth="1"/>
+    <col min="2" max="2" width="48.375" style="20" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="38.75" style="29" customWidth="1"/>
-    <col min="6" max="6" width="26" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14.6666666666667" style="47" customWidth="1"/>
+    <col min="5" max="5" width="38.75" style="48" customWidth="1"/>
+    <col min="6" max="6" width="26" style="40" customWidth="1"/>
     <col min="7" max="7" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" ht="27" customHeight="1" spans="1:6">
-      <c r="A1" s="30" t="s">
+    <row r="1" s="44" customFormat="1" ht="27" customHeight="1" spans="1:6">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="25.5" spans="1:6">
-      <c r="A2" s="18" t="s">
+    <row r="2" ht="24" spans="1:7">
+      <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="40" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" ht="25.5" spans="1:6">
-      <c r="A3" s="18" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="3" ht="24" spans="1:6">
+      <c r="A3" s="35" t="s">
         <v>13</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="E3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="38.25" spans="1:6">
-      <c r="A4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" ht="36" spans="1:6">
+      <c r="A4" s="35" t="s">
         <v>16</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="E4" s="48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" ht="51" spans="1:6">
-      <c r="A5" s="18" t="s">
+      <c r="F4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="5" ht="48" spans="1:6">
+      <c r="A5" s="35" t="s">
         <v>20</v>
       </c>
+      <c r="B5" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="D5" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" ht="25.5" spans="1:6">
-      <c r="A6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="6" ht="24" spans="1:6">
+      <c r="A6" s="35" t="s">
         <v>24</v>
       </c>
+      <c r="B6" s="20" t="s">
+        <v>25</v>
+      </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="22.5" spans="1:6">
-      <c r="A7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="29" t="s">
+      <c r="B7" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="C7" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="56.25" spans="1:6">
-      <c r="A8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" ht="52.5" spans="1:6">
+      <c r="A8" s="35" t="s">
         <v>30</v>
       </c>
+      <c r="B8" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="21" t="s">
+      <c r="E8" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:6">
-      <c r="A9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="A9" s="35" t="s">
         <v>34</v>
       </c>
+      <c r="B9" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" ht="21" customHeight="1" spans="2:6">
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="1" t="s">
-        <v>35</v>
+      <c r="B10" s="53"/>
+      <c r="C10" s="46"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="34" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" ht="22.5" spans="1:6">
-      <c r="A11" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="35" t="s">
         <v>37</v>
       </c>
+      <c r="B11" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="35" t="s">
+      <c r="D11" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:7">
-      <c r="A13" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="C13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="E13" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="F13" s="40" t="s">
         <v>45</v>
       </c>
+      <c r="G13" s="55" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="35" t="s">
         <v>47</v>
       </c>
+      <c r="B15" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="35" t="s">
         <v>49</v>
       </c>
+      <c r="B16" s="20" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" ht="52.5" spans="1:6">
-      <c r="A18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="B18" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="C18" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="D18" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="57" t="s">
         <v>55</v>
       </c>
+      <c r="F18" s="34" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20" ht="22.5" spans="1:7">
-      <c r="A20" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="C20" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="D20" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="F20" s="58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="18" t="s">
+      <c r="G20" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="22" ht="33.75" spans="1:2">
+      <c r="A22" s="35" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" ht="33.75" spans="1:2">
-      <c r="A25" s="18" t="s">
+      <c r="B22" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="4" t="s">
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="35" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="18" t="s">
+      <c r="B24" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C24" t="s">
         <v>67</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D24" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="F24" s="40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="18" t="s">
+      <c r="B25" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B26" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    </row>
+    <row r="28" ht="70" customHeight="1" spans="1:2">
+      <c r="A28" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>69</v>
+      <c r="B28" s="19" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F11">
     <extLst/>
   </autoFilter>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F24:F26"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3116,684 +3722,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor theme="7"/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="46.25" customWidth="1"/>
-    <col min="3" max="3" width="51.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" ht="56.25" spans="1:3">
-      <c r="A3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.25" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="22.5" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" ht="45" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A7"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="16.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="61.25" customWidth="1"/>
-    <col min="3" max="3" width="56.125" customWidth="1"/>
-    <col min="4" max="4" width="32.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" ht="27" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" ht="54" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" ht="27" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" ht="23" customHeight="1" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" ht="22.5" spans="1:2">
-      <c r="A13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="27"/>
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A15:A16"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor theme="6"/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="9" style="21"/>
-    <col min="3" max="3" width="24.75" style="21" customWidth="1"/>
-    <col min="4" max="4" width="43.375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="27.625" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="65" customHeight="1" spans="1:4">
-      <c r="A1" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" ht="73.5" spans="2:4">
-      <c r="B2" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" ht="105" spans="2:4">
-      <c r="B3" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" ht="105" spans="2:4">
-      <c r="B4" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" ht="52.5" spans="2:4">
-      <c r="B5" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" ht="105" spans="2:4">
-      <c r="B6" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor theme="9" tint="0.4"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor theme="4" tint="0.4"/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="2" max="2" width="65.125" customWidth="1"/>
-    <col min="3" max="3" width="40.125" customWidth="1"/>
-    <col min="4" max="4" width="35.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.5"/>
-  </sheetPr>
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="13.75" style="15" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="43.875" customWidth="1"/>
-    <col min="4" max="4" width="37.75" style="12" customWidth="1"/>
-    <col min="5" max="5" width="27.625" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="7" width="18.875" style="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" ht="93" customHeight="1" spans="1:7">
-      <c r="A2" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" ht="24" spans="1:2">
-      <c r="A3" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="39.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="65.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:1">
-      <c r="A1" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" ht="24" spans="1:1">
-      <c r="A2" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" ht="47" customHeight="1" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -3811,101 +3739,1578 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="3" tint="0.4"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="30.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="1" max="1" width="30.375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="43.125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="29.75" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" ht="28" customHeight="1" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" ht="31" customHeight="1" spans="1:2">
-      <c r="A4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" ht="14" customHeight="1" spans="1:2">
-      <c r="A5"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" ht="19" customHeight="1" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" ht="36" spans="1:3">
-      <c r="A7" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" ht="24" spans="1:3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" ht="23" customHeight="1" spans="1:2">
-      <c r="A9" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>191</v>
-      </c>
+      <c r="A1" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" s="17" customFormat="1" ht="37" customHeight="1" spans="1:2">
+      <c r="A2" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" s="17" customFormat="1" ht="25" customHeight="1" spans="1:2">
+      <c r="A3" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" s="17" customFormat="1" ht="28.5" spans="1:2">
+      <c r="A4" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" s="17" customFormat="1" ht="34" customHeight="1" spans="1:2">
+      <c r="A5" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" s="17" customFormat="1" ht="14" customHeight="1"/>
+    <row r="7" s="17" customFormat="1" ht="19" customHeight="1" spans="1:2">
+      <c r="A7" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" s="17" customFormat="1" ht="57" spans="1:3">
+      <c r="A8" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" s="17" customFormat="1" ht="28.5" spans="1:3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" s="17" customFormat="1" ht="50" customHeight="1" spans="1:2">
+      <c r="A10" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+    </row>
+    <row r="12" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A12" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+    </row>
+    <row r="14" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+    </row>
+    <row r="15" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+    </row>
+    <row r="16" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+    </row>
+    <row r="17" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+    </row>
+    <row r="18" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+    </row>
+    <row r="19" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+    </row>
+    <row r="20" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+    </row>
+    <row r="21" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+    </row>
+    <row r="22" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+    </row>
+    <row r="23" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+    </row>
+    <row r="24" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+    </row>
+    <row r="25" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+    </row>
+    <row r="26" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+    </row>
+    <row r="27" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+    </row>
+    <row r="28" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+    </row>
+    <row r="29" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+    </row>
+    <row r="30" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+    </row>
+    <row r="31" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+    </row>
+    <row r="32" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+    </row>
+    <row r="33" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+    </row>
+    <row r="34" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+    </row>
+    <row r="35" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+    </row>
+    <row r="36" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+    </row>
+    <row r="37" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+    </row>
+    <row r="38" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24"/>
+    </row>
+    <row r="39" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+    </row>
+    <row r="40" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="46.25" customWidth="1"/>
+    <col min="3" max="3" width="51.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" ht="56.25" spans="1:3">
+      <c r="A3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" ht="45" spans="1:2">
+      <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.1"/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="22.125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="45.25" style="17" customWidth="1"/>
+    <col min="3" max="3" width="20" style="17" customWidth="1"/>
+    <col min="4" max="4" width="23.75" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28.5" spans="1:2">
+      <c r="A1" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" ht="71.25" spans="1:3">
+      <c r="A3" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="2:3">
+      <c r="B4" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="2:3">
+      <c r="B5" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="2:3">
+      <c r="B6" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1" spans="2:3">
+      <c r="B7" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1" spans="2:2">
+      <c r="B8" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="2:2">
+      <c r="B9" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:2">
+      <c r="A11" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" ht="57" spans="1:4">
+      <c r="A13" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" ht="74" customHeight="1" spans="1:4">
+      <c r="A14" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" ht="99.75" spans="1:4">
+      <c r="A15" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="17" ht="45" customHeight="1" spans="1:2">
+      <c r="A17" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="D13:D15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="8" tint="0.6"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12" style="13" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="48.625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="14"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="14"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="14"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="14"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="14"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="14"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="14"/>
+    </row>
+    <row r="14" ht="27" spans="1:2">
+      <c r="A14" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="44.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="34" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://zhitu.isux.us/"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://tinyjpg.com/"/>
+    <hyperlink ref="C9" r:id="rId3" display="https://imgse.com/"/>
+    <hyperlink ref="C10" r:id="rId4" display="https://imgchr.com/"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="18.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="2:2">
+      <c r="B3" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://github.com/qyuhen/book"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://github.com/astaxie/build-web-application-with-golang/blob/master/zh/preface.md"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16.625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="68" customWidth="1"/>
+    <col min="3" max="3" width="56.125" customWidth="1"/>
+    <col min="4" max="4" width="32.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" spans="1:3">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:3">
+      <c r="A3" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:2">
+      <c r="A5" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" ht="23" customHeight="1" spans="1:3">
+      <c r="A6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:3">
+      <c r="A7" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" ht="19" customHeight="1"/>
+    <row r="9" ht="54" spans="1:2">
+      <c r="A9" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:3">
+      <c r="A10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" ht="48" customHeight="1" spans="1:3">
+      <c r="A11" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" ht="28" customHeight="1" spans="1:2">
+      <c r="A13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" ht="31" customHeight="1" spans="1:2">
+      <c r="A14" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:3">
+      <c r="A16" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:3">
+      <c r="A17" s="45"/>
+      <c r="B17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:3">
+      <c r="A19" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:3">
+      <c r="A21" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" ht="27" customHeight="1" spans="1:3">
+      <c r="A22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="40"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="46"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="46"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C26"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="6"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="40"/>
+    <col min="2" max="2" width="33.5" style="40" customWidth="1"/>
+    <col min="3" max="3" width="39.625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="62.5" style="40" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="40" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="65" customHeight="1" spans="1:4">
+      <c r="A1" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" ht="52.5" spans="2:4">
+      <c r="B2" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" ht="73.5" spans="2:4">
+      <c r="B3" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" ht="73.5" spans="2:4">
+      <c r="B4" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" ht="42" spans="2:4">
+      <c r="B5" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" ht="73.5" spans="2:4">
+      <c r="B6" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="9" tint="0.4"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="4" tint="0.4"/>
+  </sheetPr>
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="65.125" customWidth="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1"/>
+    <col min="4" max="4" width="35.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="23.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="37" customFormat="1" spans="1:4">
+      <c r="A1" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="106" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" spans="1:1">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" ht="13.5" spans="1:1">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" ht="13.5" spans="1:1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" ht="13.5" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.25"/>
+  </sheetPr>
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="22.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.25" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="37" customFormat="1" spans="1:5">
+      <c r="A1" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="17" customFormat="1" ht="60" customHeight="1" spans="1:4">
+      <c r="A2" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" s="17" customFormat="1" ht="63" customHeight="1" spans="1:5">
+      <c r="A3" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" s="17" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A4" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" s="17" customFormat="1" ht="14.25"/>
+    <row r="6" s="17" customFormat="1" ht="14.25"/>
+    <row r="7" s="17" customFormat="1" ht="14.25"/>
+    <row r="8" s="17" customFormat="1" ht="14.25"/>
+    <row r="9" s="17" customFormat="1" ht="14.25"/>
+    <row r="10" s="17" customFormat="1" ht="14.25"/>
+    <row r="11" s="17" customFormat="1" ht="14.25"/>
+    <row r="12" s="17" customFormat="1" ht="14.25"/>
+    <row r="13" s="17" customFormat="1" ht="14.25"/>
+    <row r="14" s="17" customFormat="1" ht="14.25"/>
+    <row r="15" s="17" customFormat="1" ht="14.25"/>
+    <row r="16" s="17" customFormat="1" ht="14.25"/>
+    <row r="17" s="17" customFormat="1" ht="14.25"/>
+    <row r="18" s="17" customFormat="1" ht="14.25"/>
+    <row r="19" s="17" customFormat="1" ht="14.25"/>
+    <row r="20" s="17" customFormat="1" ht="14.25"/>
+    <row r="21" s="17" customFormat="1" ht="14.25"/>
+    <row r="22" s="17" customFormat="1" ht="14.25"/>
+    <row r="23" s="17" customFormat="1" ht="14.25"/>
+    <row r="24" s="17" customFormat="1" ht="14.25"/>
+    <row r="25" s="17" customFormat="1" ht="14.25"/>
+    <row r="26" s="17" customFormat="1" ht="14.25"/>
+    <row r="27" s="17" customFormat="1" ht="14.25"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.5"/>
+  </sheetPr>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="31" customWidth="1"/>
+    <col min="2" max="2" width="31.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="43.875" customWidth="1"/>
+    <col min="4" max="4" width="37.75" style="13" customWidth="1"/>
+    <col min="5" max="5" width="27.625" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" ht="93" customHeight="1" spans="1:7">
+      <c r="A2" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" ht="24" spans="1:2">
+      <c r="A3" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:2">
+      <c r="A9" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="39.875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="65.5" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:1">
+      <c r="A1" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" ht="24" spans="1:1">
+      <c r="A2" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" ht="47" customHeight="1" spans="1:2">
+      <c r="A3" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" ht="89" customHeight="1" spans="1:3">
+      <c r="A10" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>